--- a/state_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
+++ b/state_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U332"/>
+  <dimension ref="A1:U353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0047020199301625</v>
+        <v>0.0047064109426556</v>
       </c>
       <c r="H3" t="n">
         <v>0.035</v>
@@ -732,7 +732,7 @@
         <v>0.003</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0047020199301625</v>
+        <v>0.0047064109426556</v>
       </c>
       <c r="H4" t="n">
         <v>0.035</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.00595</v>
+        <v>0.00604</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01947495104639</v>
+        <v>0.0195287735207529</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
@@ -824,7 +824,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.00273</v>
+        <v>0.00284</v>
       </c>
       <c r="M5" t="n">
         <v>0.023</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.00595</v>
+        <v>0.00604</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01947495104639</v>
+        <v>0.0195287735207529</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
@@ -905,7 +905,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.00273</v>
+        <v>0.00284</v>
       </c>
       <c r="M6" t="n">
         <v>0.023</v>
@@ -1056,7 +1056,7 @@
         <v>0.004</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009209818367175999</v>
+        <v>0.0092142157222419</v>
       </c>
       <c r="H8" t="n">
         <v>0.219</v>
@@ -1137,7 +1137,7 @@
         <v>0.004</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009209818367175999</v>
+        <v>0.0092142157222419</v>
       </c>
       <c r="H9" t="n">
         <v>0.219</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.00554</v>
+        <v>0.00569</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0207692209246115</v>
+        <v>0.0208487057503703</v>
       </c>
       <c r="H11" t="n">
         <v>0.2</v>
@@ -1306,7 +1306,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.0036</v>
+        <v>0.00376</v>
       </c>
       <c r="M11" t="n">
         <v>0.023</v>
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.00554</v>
+        <v>0.00569</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0207692209246115</v>
+        <v>0.0208487057503703</v>
       </c>
       <c r="H12" t="n">
         <v>0.2</v>
@@ -1387,7 +1387,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.0036</v>
+        <v>0.00376</v>
       </c>
       <c r="M12" t="n">
         <v>0.023</v>
@@ -1538,7 +1538,7 @@
         <v>0.004</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009015714223184699</v>
+        <v>0.0090212669321493</v>
       </c>
       <c r="H14" t="n">
         <v>0.219</v>
@@ -1619,7 +1619,7 @@
         <v>0.004</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009015714223184699</v>
+        <v>0.0090212669321493</v>
       </c>
       <c r="H15" t="n">
         <v>0.219</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0073</v>
+        <v>0.00754</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0256639441124737</v>
+        <v>0.0257576013084664</v>
       </c>
       <c r="H17" t="n">
         <v>0.2</v>
@@ -1788,7 +1788,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00482</v>
+        <v>0.00498</v>
       </c>
       <c r="M17" t="n">
         <v>0.05</v>
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0073</v>
+        <v>0.00754</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0256639441124737</v>
+        <v>0.0257576013084664</v>
       </c>
       <c r="H18" t="n">
         <v>0.2</v>
@@ -1869,7 +1869,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.00482</v>
+        <v>0.00498</v>
       </c>
       <c r="M18" t="n">
         <v>0.05</v>
@@ -2020,7 +2020,7 @@
         <v>0.006</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0104358748018856</v>
+        <v>0.0104411046444813</v>
       </c>
       <c r="H20" t="n">
         <v>0.219</v>
@@ -2101,7 +2101,7 @@
         <v>0.006</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0104358748018856</v>
+        <v>0.0104411046444813</v>
       </c>
       <c r="H21" t="n">
         <v>0.219</v>
@@ -2182,7 +2182,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>46.4309611516326</v>
+        <v>46.4311381975308</v>
       </c>
       <c r="H22" t="n">
         <v>215</v>
@@ -2267,7 +2267,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>46.4309611516326</v>
+        <v>46.4311381975308</v>
       </c>
       <c r="H23" t="n">
         <v>215</v>
@@ -2352,7 +2352,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>46.4309611516326</v>
+        <v>46.4311381975308</v>
       </c>
       <c r="H24" t="n">
         <v>215</v>
@@ -2437,7 +2437,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>46.4309611516326</v>
+        <v>46.4311381975308</v>
       </c>
       <c r="H25" t="n">
         <v>215</v>
@@ -2596,10 +2596,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0009</v>
+        <v>0.00099</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0034452368775972</v>
+        <v>0.0034751411005393</v>
       </c>
       <c r="H27" t="n">
         <v>0.012927896218345</v>
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0009</v>
+        <v>0.00099</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0034452368775972</v>
+        <v>0.0034751411005393</v>
       </c>
       <c r="H28" t="n">
         <v>0.012927896218345</v>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.00779</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0265994618242108</v>
+        <v>0.0266972214540005</v>
       </c>
       <c r="H29" t="n">
         <v>0.2</v>
@@ -2772,7 +2772,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00652</v>
+        <v>0.0066</v>
       </c>
       <c r="M29" t="n">
         <v>0.05</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.00779</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0265994618242108</v>
+        <v>0.0266972214540005</v>
       </c>
       <c r="H30" t="n">
         <v>0.2</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.00652</v>
+        <v>0.0066</v>
       </c>
       <c r="M30" t="n">
         <v>0.05</v>
@@ -2919,13 +2919,13 @@
         <v>0.019</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0347124479520795</v>
+        <v>0.0347956192496897</v>
       </c>
       <c r="H31" t="n">
         <v>0.21</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09825</v>
+        <v>0.09862</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
         <v>0.015</v>
       </c>
       <c r="M31" t="n">
-        <v>0.05365</v>
+        <v>0.05387</v>
       </c>
       <c r="N31" t="n">
         <v>0.08069999999999999</v>
@@ -2996,13 +2996,13 @@
         <v>0.019</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0347124479520795</v>
+        <v>0.0347956192496897</v>
       </c>
       <c r="H32" t="n">
         <v>0.21</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09825</v>
+        <v>0.09862</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3010,7 +3010,7 @@
         <v>0.015</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05365</v>
+        <v>0.05387</v>
       </c>
       <c r="N32" t="n">
         <v>0.08069999999999999</v>
@@ -3158,7 +3158,7 @@
         <v>0.006</v>
       </c>
       <c r="G34" t="n">
-        <v>0.011394669736143</v>
+        <v>0.011401126285537</v>
       </c>
       <c r="H34" t="n">
         <v>0.219</v>
@@ -3239,7 +3239,7 @@
         <v>0.006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.011394669736143</v>
+        <v>0.011401126285537</v>
       </c>
       <c r="H35" t="n">
         <v>0.219</v>
@@ -3320,7 +3320,7 @@
         <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>43.2015909992924</v>
+        <v>43.2020654432133</v>
       </c>
       <c r="H36" t="n">
         <v>215</v>
@@ -3405,7 +3405,7 @@
         <v>20</v>
       </c>
       <c r="G37" t="n">
-        <v>43.2015909992924</v>
+        <v>43.2020654432133</v>
       </c>
       <c r="H37" t="n">
         <v>215</v>
@@ -3490,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>43.2015909992924</v>
+        <v>43.2020654432133</v>
       </c>
       <c r="H38" t="n">
         <v>215</v>
@@ -3575,7 +3575,7 @@
         <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>43.2015909992924</v>
+        <v>43.2020654432133</v>
       </c>
       <c r="H39" t="n">
         <v>215</v>
@@ -3734,10 +3734,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00098</v>
       </c>
       <c r="G41" t="n">
-        <v>0.002943968455257</v>
+        <v>0.002984054910802</v>
       </c>
       <c r="H41" t="n">
         <v>0.012927896218345</v>
@@ -3748,7 +3748,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00098</v>
+        <v>0.00107</v>
       </c>
       <c r="M41" t="n">
         <v>0.00658</v>
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00098</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002943968455257</v>
+        <v>0.002984054910802</v>
       </c>
       <c r="H42" t="n">
         <v>0.012927896218345</v>
@@ -3829,7 +3829,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.00098</v>
+        <v>0.00107</v>
       </c>
       <c r="M42" t="n">
         <v>0.00658</v>
@@ -3896,10 +3896,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.01025</v>
+        <v>0.01048</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0310647068787883</v>
+        <v>0.0311795336407518</v>
       </c>
       <c r="H43" t="n">
         <v>0.2</v>
@@ -3910,7 +3910,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00735</v>
+        <v>0.0074</v>
       </c>
       <c r="M43" t="n">
         <v>0.0547</v>
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.01025</v>
+        <v>0.01048</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0310647068787883</v>
+        <v>0.0311795336407518</v>
       </c>
       <c r="H44" t="n">
         <v>0.2</v>
@@ -3991,7 +3991,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00735</v>
+        <v>0.0074</v>
       </c>
       <c r="M44" t="n">
         <v>0.0547</v>
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.02586</v>
+        <v>0.02599</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0409346250741105</v>
+        <v>0.0409960949059132</v>
       </c>
       <c r="H45" t="n">
         <v>0.21</v>
@@ -4074,7 +4074,7 @@
         <v>0.06306</v>
       </c>
       <c r="N45" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.09847</v>
       </c>
       <c r="O45" t="n">
         <v>1861326.612</v>
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.02586</v>
+        <v>0.02599</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0409346250741105</v>
+        <v>0.0409960949059132</v>
       </c>
       <c r="H46" t="n">
         <v>0.21</v>
@@ -4151,7 +4151,7 @@
         <v>0.06306</v>
       </c>
       <c r="N46" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.09847</v>
       </c>
       <c r="O46" t="n">
         <v>1861326.612</v>
@@ -4296,7 +4296,7 @@
         <v>0.006</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0113080539828093</v>
+        <v>0.0113159264836603</v>
       </c>
       <c r="H48" t="n">
         <v>0.219</v>
@@ -4377,7 +4377,7 @@
         <v>0.006</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0113080539828093</v>
+        <v>0.0113159264836603</v>
       </c>
       <c r="H49" t="n">
         <v>0.219</v>
@@ -4458,7 +4458,7 @@
         <v>20</v>
       </c>
       <c r="G50" t="n">
-        <v>38.716764383044</v>
+        <v>38.7181583790872</v>
       </c>
       <c r="H50" t="n">
         <v>280</v>
@@ -4543,7 +4543,7 @@
         <v>20</v>
       </c>
       <c r="G51" t="n">
-        <v>38.716764383044</v>
+        <v>38.7181583790872</v>
       </c>
       <c r="H51" t="n">
         <v>280</v>
@@ -4628,7 +4628,7 @@
         <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>38.716764383044</v>
+        <v>38.7181583790872</v>
       </c>
       <c r="H52" t="n">
         <v>280</v>
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>38.716764383044</v>
+        <v>38.7181583790872</v>
       </c>
       <c r="H53" t="n">
         <v>280</v>
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.00083</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0025817376502987</v>
+        <v>0.0026292334104186</v>
       </c>
       <c r="H55" t="n">
         <v>0.0167935431653733</v>
@@ -4886,7 +4886,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.00092</v>
+        <v>0.001</v>
       </c>
       <c r="M55" t="n">
         <v>0.00587</v>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.00083</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0025817376502987</v>
+        <v>0.0026292334104186</v>
       </c>
       <c r="H56" t="n">
         <v>0.0167935431653733</v>
@@ -4967,7 +4967,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>0.00092</v>
+        <v>0.001</v>
       </c>
       <c r="M56" t="n">
         <v>0.00587</v>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.01321</v>
+        <v>0.01351</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0353917637685789</v>
+        <v>0.0355081146364853</v>
       </c>
       <c r="H57" t="n">
         <v>0.14</v>
@@ -5048,7 +5048,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>0.00844</v>
+        <v>0.00868</v>
       </c>
       <c r="M57" t="n">
         <v>0.08</v>
@@ -5115,10 +5115,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.01321</v>
+        <v>0.01351</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0353917637685789</v>
+        <v>0.0355081146364853</v>
       </c>
       <c r="H58" t="n">
         <v>0.14</v>
@@ -5129,7 +5129,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.00844</v>
+        <v>0.00868</v>
       </c>
       <c r="M58" t="n">
         <v>0.08</v>
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.02586</v>
+        <v>0.02599</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0407975595678261</v>
+        <v>0.0408469120448783</v>
       </c>
       <c r="H59" t="n">
         <v>0.135</v>
@@ -5209,10 +5209,10 @@
         <v>0.019</v>
       </c>
       <c r="M59" t="n">
-        <v>0.07908</v>
+        <v>0.07882</v>
       </c>
       <c r="N59" t="n">
-        <v>0.10018</v>
+        <v>0.10055</v>
       </c>
       <c r="O59" t="n">
         <v>1861326.612</v>
@@ -5269,10 +5269,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.02586</v>
+        <v>0.02599</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0407975595678261</v>
+        <v>0.0408469120448783</v>
       </c>
       <c r="H60" t="n">
         <v>0.135</v>
@@ -5286,10 +5286,10 @@
         <v>0.019</v>
       </c>
       <c r="M60" t="n">
-        <v>0.07908</v>
+        <v>0.07882</v>
       </c>
       <c r="N60" t="n">
-        <v>0.10018</v>
+        <v>0.10055</v>
       </c>
       <c r="O60" t="n">
         <v>1861326.612</v>
@@ -5434,7 +5434,7 @@
         <v>0.006</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0069106930479843</v>
+        <v>0.0069204783185313</v>
       </c>
       <c r="H62" t="n">
         <v>0.029</v>
@@ -5445,7 +5445,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00238</v>
+        <v>0.00241</v>
       </c>
       <c r="M62" t="n">
         <v>0.012</v>
@@ -5515,7 +5515,7 @@
         <v>0.006</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0069106930479843</v>
+        <v>0.0069204783185313</v>
       </c>
       <c r="H63" t="n">
         <v>0.029</v>
@@ -5526,7 +5526,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00238</v>
+        <v>0.00241</v>
       </c>
       <c r="M63" t="n">
         <v>0.012</v>
@@ -5596,7 +5596,7 @@
         <v>20</v>
       </c>
       <c r="G64" t="n">
-        <v>36.4294743217814</v>
+        <v>36.4309719021267</v>
       </c>
       <c r="H64" t="n">
         <v>280</v>
@@ -5681,7 +5681,7 @@
         <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>36.4294743217814</v>
+        <v>36.4309719021267</v>
       </c>
       <c r="H65" t="n">
         <v>280</v>
@@ -5766,7 +5766,7 @@
         <v>20</v>
       </c>
       <c r="G66" t="n">
-        <v>36.4294743217814</v>
+        <v>36.4309719021267</v>
       </c>
       <c r="H66" t="n">
         <v>280</v>
@@ -5851,7 +5851,7 @@
         <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>36.4294743217814</v>
+        <v>36.4309719021267</v>
       </c>
       <c r="H67" t="n">
         <v>280</v>
@@ -6010,10 +6010,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.00088</v>
+        <v>0.00095</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0024372856810987</v>
+        <v>0.0024776801180388</v>
       </c>
       <c r="H69" t="n">
         <v>0.0167935431653733</v>
@@ -6024,7 +6024,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00098</v>
+        <v>0.00104</v>
       </c>
       <c r="M69" t="n">
         <v>0.00442</v>
@@ -6091,10 +6091,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.00088</v>
+        <v>0.00095</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0024372856810987</v>
+        <v>0.0024776801180388</v>
       </c>
       <c r="H70" t="n">
         <v>0.0167935431653733</v>
@@ -6105,7 +6105,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00098</v>
+        <v>0.00104</v>
       </c>
       <c r="M70" t="n">
         <v>0.00442</v>
@@ -6172,10 +6172,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.02255</v>
+        <v>0.02295</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0370117090592489</v>
+        <v>0.0371106410571335</v>
       </c>
       <c r="H71" t="n">
         <v>0.13</v>
@@ -6186,7 +6186,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.00954</v>
       </c>
       <c r="M71" t="n">
         <v>0.08</v>
@@ -6253,10 +6253,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.02255</v>
+        <v>0.02295</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0370117090592489</v>
+        <v>0.0371106410571335</v>
       </c>
       <c r="H72" t="n">
         <v>0.13</v>
@@ -6267,7 +6267,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.00954</v>
       </c>
       <c r="M72" t="n">
         <v>0.08</v>
@@ -6333,7 +6333,7 @@
         <v>0.021</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0377220720023317</v>
+        <v>0.0377731572626316</v>
       </c>
       <c r="H73" t="n">
         <v>0.135</v>
@@ -6350,7 +6350,7 @@
         <v>0.06705</v>
       </c>
       <c r="N73" t="n">
-        <v>0.10046</v>
+        <v>0.10085</v>
       </c>
       <c r="O73" t="n">
         <v>1861326.612</v>
@@ -6410,7 +6410,7 @@
         <v>0.021</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0377220720023317</v>
+        <v>0.0377731572626316</v>
       </c>
       <c r="H74" t="n">
         <v>0.135</v>
@@ -6427,7 +6427,7 @@
         <v>0.06705</v>
       </c>
       <c r="N74" t="n">
-        <v>0.10046</v>
+        <v>0.10085</v>
       </c>
       <c r="O74" t="n">
         <v>1861326.612</v>
@@ -6491,7 +6491,7 @@
         <v>3.21</v>
       </c>
       <c r="G75" t="n">
-        <v>3.28559688118142</v>
+        <v>3.28508193009979</v>
       </c>
       <c r="H75" t="n">
         <v>11.28</v>
@@ -6572,7 +6572,7 @@
         <v>0.006</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0069932702878253</v>
+        <v>0.0070040489257042</v>
       </c>
       <c r="H76" t="n">
         <v>0.029</v>
@@ -6583,7 +6583,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00276</v>
+        <v>0.00278</v>
       </c>
       <c r="M76" t="n">
         <v>0.012</v>
@@ -6653,7 +6653,7 @@
         <v>0.006</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0069932702878253</v>
+        <v>0.0070040489257042</v>
       </c>
       <c r="H77" t="n">
         <v>0.029</v>
@@ -6664,7 +6664,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00276</v>
+        <v>0.00278</v>
       </c>
       <c r="M77" t="n">
         <v>0.012</v>
@@ -6734,7 +6734,7 @@
         <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>157.472243909378</v>
+        <v>157.473460859522</v>
       </c>
       <c r="H78" t="n">
         <v>6488</v>
@@ -6819,7 +6819,7 @@
         <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>157.472243909378</v>
+        <v>157.473460859522</v>
       </c>
       <c r="H79" t="n">
         <v>6488</v>
@@ -6904,7 +6904,7 @@
         <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>157.472243909378</v>
+        <v>157.473460859522</v>
       </c>
       <c r="H80" t="n">
         <v>6488</v>
@@ -6989,7 +6989,7 @@
         <v>20</v>
       </c>
       <c r="G81" t="n">
-        <v>157.472243909378</v>
+        <v>157.473460859522</v>
       </c>
       <c r="H81" t="n">
         <v>6488</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.00102</v>
+        <v>0.00109</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0023355295103631</v>
+        <v>0.0023705454359456</v>
       </c>
       <c r="H83" t="n">
         <v>0.0167935431653733</v>
@@ -7162,7 +7162,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00101</v>
+        <v>0.00107</v>
       </c>
       <c r="M83" t="n">
         <v>0.00431</v>
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.00102</v>
+        <v>0.00109</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0023355295103631</v>
+        <v>0.0023705454359456</v>
       </c>
       <c r="H84" t="n">
         <v>0.0167935431653733</v>
@@ -7243,7 +7243,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.00101</v>
+        <v>0.00107</v>
       </c>
       <c r="M84" t="n">
         <v>0.00431</v>
@@ -7310,10 +7310,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.01321</v>
+        <v>0.01351</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0313514511386173</v>
+        <v>0.0314212718710413</v>
       </c>
       <c r="H85" t="n">
         <v>0.13</v>
@@ -7324,7 +7324,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.00692</v>
+        <v>0.00699</v>
       </c>
       <c r="M85" t="n">
         <v>0.0688</v>
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.01321</v>
+        <v>0.01351</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0313514511386173</v>
+        <v>0.0314212718710413</v>
       </c>
       <c r="H86" t="n">
         <v>0.13</v>
@@ -7405,7 +7405,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.00692</v>
+        <v>0.00699</v>
       </c>
       <c r="M86" t="n">
         <v>0.0688</v>
@@ -7471,7 +7471,7 @@
         <v>0.02</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0349053860833427</v>
+        <v>0.0349468475608583</v>
       </c>
       <c r="H87" t="n">
         <v>0.135</v>
@@ -7482,7 +7482,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="M87" t="n">
         <v>0.05735</v>
@@ -7548,7 +7548,7 @@
         <v>0.02</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0349053860833427</v>
+        <v>0.0349468475608583</v>
       </c>
       <c r="H88" t="n">
         <v>0.135</v>
@@ -7559,7 +7559,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="M88" t="n">
         <v>0.05735</v>
@@ -7629,10 +7629,10 @@
         <v>2.705</v>
       </c>
       <c r="G89" t="n">
-        <v>3.03176590719524</v>
+        <v>3.02605859636727</v>
       </c>
       <c r="H89" t="n">
-        <v>7.54906698314217</v>
+        <v>7.5</v>
       </c>
       <c r="I89" t="n">
         <v>6.25</v>
@@ -7707,10 +7707,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.00339</v>
+        <v>0.0034</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0055132292627034</v>
+        <v>0.005525561435319</v>
       </c>
       <c r="H90" t="n">
         <v>0.018</v>
@@ -7721,7 +7721,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.003</v>
+        <v>0.00302</v>
       </c>
       <c r="M90" t="n">
         <v>0.009299999999999999</v>
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.00339</v>
+        <v>0.0034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0055132292627034</v>
+        <v>0.005525561435319</v>
       </c>
       <c r="H91" t="n">
         <v>0.018</v>
@@ -7802,7 +7802,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.003</v>
+        <v>0.00302</v>
       </c>
       <c r="M91" t="n">
         <v>0.009299999999999999</v>
@@ -7872,7 +7872,7 @@
         <v>20</v>
       </c>
       <c r="G92" t="n">
-        <v>163.997706510888</v>
+        <v>163.99890317853</v>
       </c>
       <c r="H92" t="n">
         <v>6488</v>
@@ -7957,7 +7957,7 @@
         <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>163.997706510888</v>
+        <v>163.99890317853</v>
       </c>
       <c r="H93" t="n">
         <v>6488</v>
@@ -8042,7 +8042,7 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>163.997706510888</v>
+        <v>163.99890317853</v>
       </c>
       <c r="H94" t="n">
         <v>6488</v>
@@ -8127,7 +8127,7 @@
         <v>20</v>
       </c>
       <c r="G95" t="n">
-        <v>163.997706510888</v>
+        <v>163.99890317853</v>
       </c>
       <c r="H95" t="n">
         <v>6488</v>
@@ -8286,10 +8286,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00153</v>
+        <v>0.00165</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0041311679209733</v>
+        <v>0.0041730182904018</v>
       </c>
       <c r="H97" t="n">
         <v>0.0477282072155309</v>
@@ -8300,7 +8300,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00147</v>
+        <v>0.00154</v>
       </c>
       <c r="M97" t="n">
         <v>0.00573</v>
@@ -8367,10 +8367,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00153</v>
+        <v>0.00165</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0041311679209733</v>
+        <v>0.0041730182904018</v>
       </c>
       <c r="H98" t="n">
         <v>0.0477282072155309</v>
@@ -8381,7 +8381,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00147</v>
+        <v>0.00154</v>
       </c>
       <c r="M98" t="n">
         <v>0.00573</v>
@@ -8451,7 +8451,7 @@
         <v>0.024</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0343179002177656</v>
+        <v>0.0343622916223644</v>
       </c>
       <c r="H99" t="n">
         <v>0.13</v>
@@ -8462,7 +8462,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.01234</v>
+        <v>0.01256</v>
       </c>
       <c r="M99" t="n">
         <v>0.07000000000000001</v>
@@ -8532,7 +8532,7 @@
         <v>0.024</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0343179002177656</v>
+        <v>0.0343622916223644</v>
       </c>
       <c r="H100" t="n">
         <v>0.13</v>
@@ -8543,7 +8543,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.01234</v>
+        <v>0.01256</v>
       </c>
       <c r="M100" t="n">
         <v>0.07000000000000001</v>
@@ -8606,16 +8606,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.02493</v>
+        <v>0.02499</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0398684774768358</v>
+        <v>0.0398813533204127</v>
       </c>
       <c r="H101" t="n">
         <v>0.135</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1175</v>
+        <v>0.11775</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -8683,16 +8683,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.02493</v>
+        <v>0.02499</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0398684774768358</v>
+        <v>0.0398813533204127</v>
       </c>
       <c r="H102" t="n">
         <v>0.135</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1175</v>
+        <v>0.11775</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
         <v>0.105</v>
       </c>
       <c r="G103" t="n">
-        <v>0.126941769469382</v>
+        <v>0.126910601874294</v>
       </c>
       <c r="H103" t="n">
         <v>0.6840000000000001</v>
@@ -8840,7 +8840,7 @@
         <v>0.105</v>
       </c>
       <c r="G104" t="n">
-        <v>0.126941769469382</v>
+        <v>0.126910601874294</v>
       </c>
       <c r="H104" t="n">
         <v>0.6840000000000001</v>
@@ -8917,7 +8917,7 @@
         <v>0.012</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0188472551866811</v>
+        <v>0.0188458168468397</v>
       </c>
       <c r="H105" t="n">
         <v>0.224</v>
@@ -8994,7 +8994,7 @@
         <v>0.012</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0188472551866811</v>
+        <v>0.0188458168468397</v>
       </c>
       <c r="H106" t="n">
         <v>0.224</v>
@@ -9075,13 +9075,13 @@
         <v>2.6</v>
       </c>
       <c r="G107" t="n">
-        <v>2.82242985677814</v>
+        <v>2.80776362180025</v>
       </c>
       <c r="H107" t="n">
-        <v>7.54906698314217</v>
+        <v>7.5</v>
       </c>
       <c r="I107" t="n">
-        <v>5.54106</v>
+        <v>5.19079</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -9092,7 +9092,7 @@
         <v>4.71124</v>
       </c>
       <c r="N107" t="n">
-        <v>5.077</v>
+        <v>5.06871</v>
       </c>
       <c r="O107" t="n">
         <v>1861326.612</v>
@@ -9156,7 +9156,7 @@
         <v>0.00358</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0049906103218795</v>
+        <v>0.0050013931370608</v>
       </c>
       <c r="H108" t="n">
         <v>0.02</v>
@@ -9167,7 +9167,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.00333</v>
+        <v>0.00334</v>
       </c>
       <c r="M108" t="n">
         <v>0.007</v>
@@ -9237,7 +9237,7 @@
         <v>0.00358</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0049906103218795</v>
+        <v>0.0050013931370608</v>
       </c>
       <c r="H109" t="n">
         <v>0.02</v>
@@ -9248,7 +9248,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00333</v>
+        <v>0.00334</v>
       </c>
       <c r="M109" t="n">
         <v>0.007</v>
@@ -9318,7 +9318,7 @@
         <v>23</v>
       </c>
       <c r="G110" t="n">
-        <v>275.956587160689</v>
+        <v>275.957491386943</v>
       </c>
       <c r="H110" t="n">
         <v>6488</v>
@@ -9403,7 +9403,7 @@
         <v>23</v>
       </c>
       <c r="G111" t="n">
-        <v>275.956587160689</v>
+        <v>275.957491386943</v>
       </c>
       <c r="H111" t="n">
         <v>6488</v>
@@ -9488,7 +9488,7 @@
         <v>23</v>
       </c>
       <c r="G112" t="n">
-        <v>275.956587160689</v>
+        <v>275.957491386943</v>
       </c>
       <c r="H112" t="n">
         <v>6488</v>
@@ -9573,7 +9573,7 @@
         <v>23</v>
       </c>
       <c r="G113" t="n">
-        <v>275.956587160689</v>
+        <v>275.957491386943</v>
       </c>
       <c r="H113" t="n">
         <v>6488</v>
@@ -9732,10 +9732,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.00254</v>
+        <v>0.00255</v>
       </c>
       <c r="G115" t="n">
-        <v>0.008818271958152501</v>
+        <v>0.008848021398778201</v>
       </c>
       <c r="H115" t="n">
         <v>0.055</v>
@@ -9813,10 +9813,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.00254</v>
+        <v>0.00255</v>
       </c>
       <c r="G116" t="n">
-        <v>0.008818271958152501</v>
+        <v>0.008848021398778201</v>
       </c>
       <c r="H116" t="n">
         <v>0.055</v>
@@ -9897,7 +9897,7 @@
         <v>0.017</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0250208932831373</v>
+        <v>0.0250269951021677</v>
       </c>
       <c r="H117" t="n">
         <v>0.11</v>
@@ -9978,7 +9978,7 @@
         <v>0.017</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0250208932831373</v>
+        <v>0.0250269951021677</v>
       </c>
       <c r="H118" t="n">
         <v>0.11</v>
@@ -10055,7 +10055,7 @@
         <v>0.024</v>
       </c>
       <c r="G119" t="n">
-        <v>0.036651949140829</v>
+        <v>0.0366501902064331</v>
       </c>
       <c r="H119" t="n">
         <v>0.134</v>
@@ -10132,7 +10132,7 @@
         <v>0.024</v>
       </c>
       <c r="G120" t="n">
-        <v>0.036651949140829</v>
+        <v>0.0366501902064331</v>
       </c>
       <c r="H120" t="n">
         <v>0.134</v>
@@ -10209,7 +10209,7 @@
         <v>0.11</v>
       </c>
       <c r="G121" t="n">
-        <v>0.160973601030466</v>
+        <v>0.160955497427391</v>
       </c>
       <c r="H121" t="n">
         <v>1.6</v>
@@ -10286,7 +10286,7 @@
         <v>0.11</v>
       </c>
       <c r="G122" t="n">
-        <v>0.160973601030466</v>
+        <v>0.160955497427391</v>
       </c>
       <c r="H122" t="n">
         <v>1.6</v>
@@ -10363,7 +10363,7 @@
         <v>0.011</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0245251892011827</v>
+        <v>0.024523446085066</v>
       </c>
       <c r="H123" t="n">
         <v>0.334</v>
@@ -10440,7 +10440,7 @@
         <v>0.011</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0245251892011827</v>
+        <v>0.024523446085066</v>
       </c>
       <c r="H124" t="n">
         <v>0.334</v>
@@ -10602,13 +10602,13 @@
         <v>2.5</v>
       </c>
       <c r="G126" t="n">
-        <v>2.69237430122259</v>
+        <v>2.6777080662447</v>
       </c>
       <c r="H126" t="n">
-        <v>7.54906698314217</v>
+        <v>7.29011245035259</v>
       </c>
       <c r="I126" t="n">
-        <v>5.17</v>
+        <v>5.13316</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -10683,7 +10683,7 @@
         <v>0.005</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0056628082029129</v>
+        <v>0.0056693638751909</v>
       </c>
       <c r="H127" t="n">
         <v>0.02</v>
@@ -10764,7 +10764,7 @@
         <v>0.005</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0056628082029129</v>
+        <v>0.0056693638751909</v>
       </c>
       <c r="H128" t="n">
         <v>0.02</v>
@@ -11259,10 +11259,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.00254</v>
+        <v>0.00255</v>
       </c>
       <c r="G134" t="n">
-        <v>0.008910057153218199</v>
+        <v>0.008933076686965699</v>
       </c>
       <c r="H134" t="n">
         <v>0.055</v>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.00254</v>
+        <v>0.00255</v>
       </c>
       <c r="G135" t="n">
-        <v>0.008910057153218199</v>
+        <v>0.008933076686965699</v>
       </c>
       <c r="H135" t="n">
         <v>0.055</v>
@@ -11424,7 +11424,7 @@
         <v>0.012</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0187051324921726</v>
+        <v>0.0187101359837775</v>
       </c>
       <c r="H136" t="n">
         <v>0.07000000000000001</v>
@@ -11435,7 +11435,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>0.00271</v>
+        <v>0.00276</v>
       </c>
       <c r="M136" t="n">
         <v>0.037</v>
@@ -11505,7 +11505,7 @@
         <v>0.012</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0187051324921726</v>
+        <v>0.0187101359837775</v>
       </c>
       <c r="H137" t="n">
         <v>0.07000000000000001</v>
@@ -11516,7 +11516,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00271</v>
+        <v>0.00276</v>
       </c>
       <c r="M137" t="n">
         <v>0.037</v>
@@ -11582,7 +11582,7 @@
         <v>0.025</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0330686158074957</v>
+        <v>0.0330435235397664</v>
       </c>
       <c r="H138" t="n">
         <v>0.134</v>
@@ -11593,7 +11593,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="M138" t="n">
         <v>0.0509</v>
@@ -11659,7 +11659,7 @@
         <v>0.025</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0330686158074957</v>
+        <v>0.0330435235397664</v>
       </c>
       <c r="H139" t="n">
         <v>0.134</v>
@@ -11670,7 +11670,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="M139" t="n">
         <v>0.0509</v>
@@ -11736,7 +11736,7 @@
         <v>0.11</v>
       </c>
       <c r="G140" t="n">
-        <v>0.162450875084311</v>
+        <v>0.162441240577138</v>
       </c>
       <c r="H140" t="n">
         <v>1.6</v>
@@ -11813,7 +11813,7 @@
         <v>0.11</v>
       </c>
       <c r="G141" t="n">
-        <v>0.162450875084311</v>
+        <v>0.162441240577138</v>
       </c>
       <c r="H141" t="n">
         <v>1.6</v>
@@ -11890,7 +11890,7 @@
         <v>0.011</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0248991886459797</v>
+        <v>0.0248979013962109</v>
       </c>
       <c r="H142" t="n">
         <v>0.334</v>
@@ -11967,7 +11967,7 @@
         <v>0.011</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0248991886459797</v>
+        <v>0.0248979013962109</v>
       </c>
       <c r="H143" t="n">
         <v>0.334</v>
@@ -12206,13 +12206,13 @@
         <v>2.5</v>
       </c>
       <c r="G146" t="n">
-        <v>2.69802204120036</v>
+        <v>2.68362246504025</v>
       </c>
       <c r="H146" t="n">
-        <v>7.54906698314217</v>
+        <v>7.29011245035259</v>
       </c>
       <c r="I146" t="n">
-        <v>6.52233</v>
+        <v>6.40424</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -12223,7 +12223,7 @@
         <v>4.5273</v>
       </c>
       <c r="N146" t="n">
-        <v>5.06263</v>
+        <v>5.0154</v>
       </c>
       <c r="O146" t="n">
         <v>1861326.612</v>
@@ -12287,7 +12287,7 @@
         <v>0.0055</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0063141824477221</v>
+        <v>0.0063184542607106</v>
       </c>
       <c r="H147" t="n">
         <v>0.02</v>
@@ -12368,7 +12368,7 @@
         <v>0.0055</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0063141824477221</v>
+        <v>0.0063184542607106</v>
       </c>
       <c r="H148" t="n">
         <v>0.02</v>
@@ -12863,10 +12863,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.00232</v>
+        <v>0.00241</v>
       </c>
       <c r="G154" t="n">
-        <v>0.009549852182257901</v>
+        <v>0.009570237176388699</v>
       </c>
       <c r="H154" t="n">
         <v>0.055</v>
@@ -12944,10 +12944,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.00232</v>
+        <v>0.00241</v>
       </c>
       <c r="G155" t="n">
-        <v>0.009549852182257901</v>
+        <v>0.009570237176388699</v>
       </c>
       <c r="H155" t="n">
         <v>0.055</v>
@@ -13028,7 +13028,7 @@
         <v>0.012</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0183876104101438</v>
+        <v>0.0183917799864813</v>
       </c>
       <c r="H156" t="n">
         <v>0.07000000000000001</v>
@@ -13039,7 +13039,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.00216</v>
+        <v>0.00219</v>
       </c>
       <c r="M156" t="n">
         <v>0.0363</v>
@@ -13109,7 +13109,7 @@
         <v>0.012</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0183876104101438</v>
+        <v>0.0183917799864813</v>
       </c>
       <c r="H157" t="n">
         <v>0.07000000000000001</v>
@@ -13120,7 +13120,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00216</v>
+        <v>0.00219</v>
       </c>
       <c r="M157" t="n">
         <v>0.0363</v>
@@ -13260,24 +13260,24 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.026</v>
+        <v>0.0258</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0324166666666667</v>
+        <v>0.0323766666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0.134</v>
       </c>
       <c r="I159" t="n">
-        <v>0.081</v>
+        <v>0.08094999999999999</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.012</v>
+        <v>0.01175</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0523</v>
+        <v>0.05223</v>
       </c>
       <c r="N159" t="n">
         <v>0.0726</v>
@@ -13337,24 +13337,24 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.026</v>
+        <v>0.0258</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0324166666666667</v>
+        <v>0.0323766666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0.134</v>
       </c>
       <c r="I160" t="n">
-        <v>0.081</v>
+        <v>0.08094999999999999</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.012</v>
+        <v>0.01175</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0523</v>
+        <v>0.05223</v>
       </c>
       <c r="N160" t="n">
         <v>0.0726</v>
@@ -13571,7 +13571,7 @@
         <v>0.01</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0242018048406655</v>
+        <v>0.0242010056636852</v>
       </c>
       <c r="H163" t="n">
         <v>0.334</v>
@@ -13648,7 +13648,7 @@
         <v>0.01</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0242018048406655</v>
+        <v>0.0242010056636852</v>
       </c>
       <c r="H164" t="n">
         <v>0.334</v>
@@ -13887,13 +13887,13 @@
         <v>2.8</v>
       </c>
       <c r="G167" t="n">
-        <v>3.01437061456439</v>
+        <v>3.00048598948592</v>
       </c>
       <c r="H167" t="n">
-        <v>7.54906698314217</v>
+        <v>7.29011245035259</v>
       </c>
       <c r="I167" t="n">
-        <v>6.52233</v>
+        <v>6.40424</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -13904,7 +13904,7 @@
         <v>4.6922</v>
       </c>
       <c r="N167" t="n">
-        <v>5.06263</v>
+        <v>5.0154</v>
       </c>
       <c r="O167" t="n">
         <v>1861326.612</v>
@@ -13968,7 +13968,7 @@
         <v>0.006</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0068423335301534</v>
+        <v>0.0068440632890109</v>
       </c>
       <c r="H168" t="n">
         <v>0.02</v>
@@ -14049,7 +14049,7 @@
         <v>0.006</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0068423335301534</v>
+        <v>0.0068440632890109</v>
       </c>
       <c r="H169" t="n">
         <v>0.02</v>
@@ -14547,7 +14547,7 @@
         <v>0.00287</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0107226240140769</v>
+        <v>0.0107528903681096</v>
       </c>
       <c r="H175" t="n">
         <v>0.055</v>
@@ -14558,7 +14558,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.00323</v>
+        <v>0.00334</v>
       </c>
       <c r="M175" t="n">
         <v>0.0213</v>
@@ -14628,7 +14628,7 @@
         <v>0.00287</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0107226240140769</v>
+        <v>0.0107528903681096</v>
       </c>
       <c r="H176" t="n">
         <v>0.055</v>
@@ -14639,7 +14639,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.00323</v>
+        <v>0.00334</v>
       </c>
       <c r="M176" t="n">
         <v>0.0213</v>
@@ -14709,7 +14709,7 @@
         <v>0.012</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0182262852619232</v>
+        <v>0.0182286814732317</v>
       </c>
       <c r="H177" t="n">
         <v>0.07000000000000001</v>
@@ -14790,7 +14790,7 @@
         <v>0.012</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0182262852619232</v>
+        <v>0.0182286814732317</v>
       </c>
       <c r="H178" t="n">
         <v>0.07000000000000001</v>
@@ -14941,27 +14941,27 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.025</v>
+        <v>0.0248</v>
       </c>
       <c r="G180" t="n">
-        <v>0.032388469076401</v>
+        <v>0.0323801649973189</v>
       </c>
       <c r="H180" t="n">
         <v>0.134</v>
       </c>
       <c r="I180" t="n">
-        <v>0.081</v>
+        <v>0.08094999999999999</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.013</v>
+        <v>0.01275</v>
       </c>
       <c r="M180" t="n">
         <v>0.0548</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0738</v>
+        <v>0.07364999999999999</v>
       </c>
       <c r="O180" t="n">
         <v>1861326.612</v>
@@ -15018,27 +15018,27 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.025</v>
+        <v>0.0248</v>
       </c>
       <c r="G181" t="n">
-        <v>0.032388469076401</v>
+        <v>0.0323801649973189</v>
       </c>
       <c r="H181" t="n">
         <v>0.134</v>
       </c>
       <c r="I181" t="n">
-        <v>0.081</v>
+        <v>0.08094999999999999</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.013</v>
+        <v>0.01275</v>
       </c>
       <c r="M181" t="n">
         <v>0.0548</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0738</v>
+        <v>0.07364999999999999</v>
       </c>
       <c r="O181" t="n">
         <v>1861326.612</v>
@@ -15252,7 +15252,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0185018048406655</v>
+        <v>0.0185010056636852</v>
       </c>
       <c r="H184" t="n">
         <v>0.334</v>
@@ -15329,7 +15329,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0185018048406655</v>
+        <v>0.0185010056636852</v>
       </c>
       <c r="H185" t="n">
         <v>0.334</v>
@@ -15568,13 +15568,13 @@
         <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>2.99917587666201</v>
+        <v>2.9902632864273</v>
       </c>
       <c r="H188" t="n">
         <v>7.2</v>
       </c>
       <c r="I188" t="n">
-        <v>5.53237</v>
+        <v>5.13086</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15649,7 +15649,7 @@
         <v>0.007</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0075354116861538</v>
+        <v>0.0075351752091223</v>
       </c>
       <c r="H189" t="n">
         <v>0.02</v>
@@ -15730,7 +15730,7 @@
         <v>0.007</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0075354116861538</v>
+        <v>0.0075351752091223</v>
       </c>
       <c r="H190" t="n">
         <v>0.02</v>
@@ -16225,10 +16225,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.00263</v>
+        <v>0.00279</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0093010028482775</v>
+        <v>0.0093674716860426</v>
       </c>
       <c r="H196" t="n">
         <v>0.055</v>
@@ -16239,7 +16239,7 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
-        <v>0.00275</v>
+        <v>0.00291</v>
       </c>
       <c r="M196" t="n">
         <v>0.0197</v>
@@ -16306,10 +16306,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.00263</v>
+        <v>0.00279</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0093010028482775</v>
+        <v>0.0093674716860426</v>
       </c>
       <c r="H197" t="n">
         <v>0.055</v>
@@ -16320,7 +16320,7 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>0.00275</v>
+        <v>0.00291</v>
       </c>
       <c r="M197" t="n">
         <v>0.0197</v>
@@ -16390,7 +16390,7 @@
         <v>0.008399999999999999</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0158561217899762</v>
+        <v>0.0158609818103603</v>
       </c>
       <c r="H198" t="n">
         <v>0.0582</v>
@@ -16471,7 +16471,7 @@
         <v>0.008399999999999999</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0158561217899762</v>
+        <v>0.0158609818103603</v>
       </c>
       <c r="H199" t="n">
         <v>0.0582</v>
@@ -16622,24 +16622,24 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.019</v>
+        <v>0.0191</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0268797288443934</v>
+        <v>0.0268832288592307</v>
       </c>
       <c r="H201" t="n">
-        <v>0.108</v>
+        <v>0.1083</v>
       </c>
       <c r="I201" t="n">
-        <v>0.073</v>
+        <v>0.07275</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.00991</v>
       </c>
       <c r="M201" t="n">
-        <v>0.0506</v>
+        <v>0.05057</v>
       </c>
       <c r="N201" t="n">
         <v>0.0664</v>
@@ -16699,24 +16699,24 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.019</v>
+        <v>0.0191</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0268797288443934</v>
+        <v>0.0268832288592307</v>
       </c>
       <c r="H202" t="n">
-        <v>0.108</v>
+        <v>0.1083</v>
       </c>
       <c r="I202" t="n">
-        <v>0.073</v>
+        <v>0.07275</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.00991</v>
       </c>
       <c r="M202" t="n">
-        <v>0.0506</v>
+        <v>0.05057</v>
       </c>
       <c r="N202" t="n">
         <v>0.0664</v>
@@ -16779,7 +16779,7 @@
         <v>0.0935</v>
       </c>
       <c r="G203" t="n">
-        <v>0.133224320687628</v>
+        <v>0.133201556940004</v>
       </c>
       <c r="H203" t="n">
         <v>1.6</v>
@@ -16856,7 +16856,7 @@
         <v>0.0935</v>
       </c>
       <c r="G204" t="n">
-        <v>0.133224320687628</v>
+        <v>0.133201556940004</v>
       </c>
       <c r="H204" t="n">
         <v>1.6</v>
@@ -16933,7 +16933,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0172519452885877</v>
+        <v>0.0172506839202157</v>
       </c>
       <c r="H205" t="n">
         <v>0.334</v>
@@ -17010,7 +17010,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0172519452885877</v>
+        <v>0.0172506839202157</v>
       </c>
       <c r="H206" t="n">
         <v>0.334</v>
@@ -17249,10 +17249,10 @@
         <v>2.925</v>
       </c>
       <c r="G209" t="n">
-        <v>3.15459111854599</v>
+        <v>3.15982831550024</v>
       </c>
       <c r="H209" t="n">
-        <v>9.30792040148364</v>
+        <v>9.59072903701294</v>
       </c>
       <c r="I209" t="n">
         <v>6.6568</v>
@@ -17330,7 +17330,7 @@
         <v>0.007</v>
       </c>
       <c r="G210" t="n">
-        <v>0.007909485892686099</v>
+        <v>0.007909188207696901</v>
       </c>
       <c r="H210" t="n">
         <v>0.016</v>
@@ -17411,7 +17411,7 @@
         <v>0.007</v>
       </c>
       <c r="G211" t="n">
-        <v>0.007909485892686099</v>
+        <v>0.007909188207696901</v>
       </c>
       <c r="H211" t="n">
         <v>0.016</v>
@@ -17906,10 +17906,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.00232</v>
+        <v>0.00246</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0051863647426195</v>
+        <v>0.0052992603782295</v>
       </c>
       <c r="H217" t="n">
         <v>0.0419525614538952</v>
@@ -17920,13 +17920,13 @@
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
-        <v>0.0024</v>
+        <v>0.00255</v>
       </c>
       <c r="M217" t="n">
-        <v>0.00797</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01762</v>
+        <v>0.01857</v>
       </c>
       <c r="O217" t="n">
         <v>1861326.612</v>
@@ -17987,10 +17987,10 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.00232</v>
+        <v>0.00246</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0051863647426195</v>
+        <v>0.0052992603782295</v>
       </c>
       <c r="H218" t="n">
         <v>0.0419525614538952</v>
@@ -18001,13 +18001,13 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
-        <v>0.0024</v>
+        <v>0.00255</v>
       </c>
       <c r="M218" t="n">
-        <v>0.00797</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01762</v>
+        <v>0.01857</v>
       </c>
       <c r="O218" t="n">
         <v>1861326.612</v>
@@ -18071,7 +18071,7 @@
         <v>0.01055</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0192081464956333</v>
+        <v>0.0192119931420492</v>
       </c>
       <c r="H219" t="n">
         <v>0.171</v>
@@ -18152,7 +18152,7 @@
         <v>0.01055</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0192081464956333</v>
+        <v>0.0192119931420492</v>
       </c>
       <c r="H220" t="n">
         <v>0.171</v>
@@ -18306,21 +18306,21 @@
         <v>0.015</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0265630621777267</v>
+        <v>0.026581562192564</v>
       </c>
       <c r="H222" t="n">
         <v>0.185</v>
       </c>
       <c r="I222" t="n">
-        <v>0.078</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>0.00949</v>
+        <v>0.00961</v>
       </c>
       <c r="M222" t="n">
-        <v>0.0492</v>
+        <v>0.04917</v>
       </c>
       <c r="N222" t="n">
         <v>0.062</v>
@@ -18383,21 +18383,21 @@
         <v>0.015</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0265630621777267</v>
+        <v>0.026581562192564</v>
       </c>
       <c r="H223" t="n">
         <v>0.185</v>
       </c>
       <c r="I223" t="n">
-        <v>0.078</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>0.00949</v>
+        <v>0.00961</v>
       </c>
       <c r="M223" t="n">
-        <v>0.0492</v>
+        <v>0.04917</v>
       </c>
       <c r="N223" t="n">
         <v>0.062</v>
@@ -18460,7 +18460,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="G224" t="n">
-        <v>0.116940987354294</v>
+        <v>0.11691822360667</v>
       </c>
       <c r="H224" t="n">
         <v>0.9399999999999999</v>
@@ -18537,7 +18537,7 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="G225" t="n">
-        <v>0.116940987354294</v>
+        <v>0.11691822360667</v>
       </c>
       <c r="H225" t="n">
         <v>0.9399999999999999</v>
@@ -18614,7 +18614,7 @@
         <v>0.01</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0155212420913342</v>
+        <v>0.0155206995147424</v>
       </c>
       <c r="H226" t="n">
         <v>0.225</v>
@@ -18691,7 +18691,7 @@
         <v>0.01</v>
       </c>
       <c r="G227" t="n">
-        <v>0.0155212420913342</v>
+        <v>0.0155206995147424</v>
       </c>
       <c r="H227" t="n">
         <v>0.225</v>
@@ -18930,10 +18930,10 @@
         <v>2.787</v>
       </c>
       <c r="G230" t="n">
-        <v>3.01958340380158</v>
+        <v>3.0249194157927</v>
       </c>
       <c r="H230" t="n">
-        <v>9.30792040148364</v>
+        <v>9.59072903701294</v>
       </c>
       <c r="I230" t="n">
         <v>6.71285</v>
@@ -19011,7 +19011,7 @@
         <v>0.008</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0083626360349264</v>
+        <v>0.0083622321494223</v>
       </c>
       <c r="H231" t="n">
         <v>0.016</v>
@@ -19092,7 +19092,7 @@
         <v>0.008</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0083626360349264</v>
+        <v>0.0083622321494223</v>
       </c>
       <c r="H232" t="n">
         <v>0.016</v>
@@ -19587,27 +19587,27 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.0032</v>
+        <v>0.00334</v>
       </c>
       <c r="G238" t="n">
-        <v>0.005564047968349</v>
+        <v>0.0057098714708165</v>
       </c>
       <c r="H238" t="n">
         <v>0.0419525614538952</v>
       </c>
       <c r="I238" t="n">
-        <v>0.01917</v>
+        <v>0.0196</v>
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
-        <v>0.00323</v>
+        <v>0.00334</v>
       </c>
       <c r="M238" t="n">
-        <v>0.00743</v>
+        <v>0.00776</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01543</v>
+        <v>0.01621</v>
       </c>
       <c r="O238" t="n">
         <v>1861326.612</v>
@@ -19668,27 +19668,27 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0.0032</v>
+        <v>0.00334</v>
       </c>
       <c r="G239" t="n">
-        <v>0.005564047968349</v>
+        <v>0.0057098714708165</v>
       </c>
       <c r="H239" t="n">
         <v>0.0419525614538952</v>
       </c>
       <c r="I239" t="n">
-        <v>0.01917</v>
+        <v>0.0196</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
-        <v>0.00323</v>
+        <v>0.00334</v>
       </c>
       <c r="M239" t="n">
-        <v>0.00743</v>
+        <v>0.00776</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01543</v>
+        <v>0.01621</v>
       </c>
       <c r="O239" t="n">
         <v>1861326.612</v>
@@ -19752,7 +19752,7 @@
         <v>0.0125</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0227514798289666</v>
+        <v>0.0227553264753825</v>
       </c>
       <c r="H240" t="n">
         <v>0.171</v>
@@ -19833,7 +19833,7 @@
         <v>0.0125</v>
       </c>
       <c r="G241" t="n">
-        <v>0.0227514798289666</v>
+        <v>0.0227553264753825</v>
       </c>
       <c r="H241" t="n">
         <v>0.171</v>
@@ -19984,16 +19984,16 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0.019</v>
+        <v>0.0191</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0305297288443934</v>
+        <v>0.030561562192564</v>
       </c>
       <c r="H243" t="n">
         <v>0.185</v>
       </c>
       <c r="I243" t="n">
-        <v>0.0965</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -20001,10 +20001,10 @@
         <v>0.0115</v>
       </c>
       <c r="M243" t="n">
-        <v>0.0529</v>
+        <v>0.05283</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0692</v>
+        <v>0.06884999999999999</v>
       </c>
       <c r="O243" t="n">
         <v>1861326.612</v>
@@ -20061,16 +20061,16 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0.019</v>
+        <v>0.0191</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0305297288443934</v>
+        <v>0.030561562192564</v>
       </c>
       <c r="H244" t="n">
         <v>0.185</v>
       </c>
       <c r="I244" t="n">
-        <v>0.0965</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -20078,10 +20078,10 @@
         <v>0.0115</v>
       </c>
       <c r="M244" t="n">
-        <v>0.0529</v>
+        <v>0.05283</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0692</v>
+        <v>0.06884999999999999</v>
       </c>
       <c r="O244" t="n">
         <v>1861326.612</v>
@@ -20141,7 +20141,7 @@
         <v>0.09</v>
       </c>
       <c r="G245" t="n">
-        <v>0.119791771148176</v>
+        <v>0.119762572954052</v>
       </c>
       <c r="H245" t="n">
         <v>0.9399999999999999</v>
@@ -20218,7 +20218,7 @@
         <v>0.09</v>
       </c>
       <c r="G246" t="n">
-        <v>0.119791771148176</v>
+        <v>0.119762572954052</v>
       </c>
       <c r="H246" t="n">
         <v>0.9399999999999999</v>
@@ -20295,7 +20295,7 @@
         <v>0.011</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0153121412192986</v>
+        <v>0.015311030997259</v>
       </c>
       <c r="H247" t="n">
         <v>0.225</v>
@@ -20372,7 +20372,7 @@
         <v>0.011</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0153121412192986</v>
+        <v>0.015311030997259</v>
       </c>
       <c r="H248" t="n">
         <v>0.225</v>
@@ -20611,13 +20611,13 @@
         <v>2.925</v>
       </c>
       <c r="G251" t="n">
-        <v>2.99468534809665</v>
+        <v>3.01697865180885</v>
       </c>
       <c r="H251" t="n">
-        <v>9.30792040148364</v>
+        <v>9.59072903701294</v>
       </c>
       <c r="I251" t="n">
-        <v>6</v>
+        <v>6.09</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -20628,7 +20628,7 @@
         <v>4.316</v>
       </c>
       <c r="N251" t="n">
-        <v>5.59655</v>
+        <v>6</v>
       </c>
       <c r="O251" t="n">
         <v>1861326.612</v>
@@ -20692,7 +20692,7 @@
         <v>0.008</v>
       </c>
       <c r="G252" t="n">
-        <v>0.008352622007958801</v>
+        <v>0.008351999045067201</v>
       </c>
       <c r="H252" t="n">
         <v>0.016</v>
@@ -20773,7 +20773,7 @@
         <v>0.008</v>
       </c>
       <c r="G253" t="n">
-        <v>0.008352622007958801</v>
+        <v>0.008351999045067201</v>
       </c>
       <c r="H253" t="n">
         <v>0.016</v>
@@ -20854,7 +20854,7 @@
         <v>21</v>
       </c>
       <c r="G254" t="n">
-        <v>106.881428503383</v>
+        <v>106.881057319342</v>
       </c>
       <c r="H254" t="n">
         <v>1700</v>
@@ -20939,7 +20939,7 @@
         <v>21</v>
       </c>
       <c r="G255" t="n">
-        <v>106.881428503383</v>
+        <v>106.881057319342</v>
       </c>
       <c r="H255" t="n">
         <v>1700</v>
@@ -21024,7 +21024,7 @@
         <v>21</v>
       </c>
       <c r="G256" t="n">
-        <v>106.881428503383</v>
+        <v>106.881057319342</v>
       </c>
       <c r="H256" t="n">
         <v>1700</v>
@@ -21109,7 +21109,7 @@
         <v>21</v>
       </c>
       <c r="G257" t="n">
-        <v>106.881428503383</v>
+        <v>106.881057319342</v>
       </c>
       <c r="H257" t="n">
         <v>1700</v>
@@ -21268,27 +21268,27 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>0.00431</v>
+        <v>0.00451</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0066014453958838</v>
+        <v>0.0068081106802886</v>
       </c>
       <c r="H259" t="n">
         <v>0.0419525614538952</v>
       </c>
       <c r="I259" t="n">
-        <v>0.0193</v>
+        <v>0.01968</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
-        <v>0.00583</v>
+        <v>0.00605</v>
       </c>
       <c r="M259" t="n">
-        <v>0.008619999999999999</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01637</v>
+        <v>0.01722</v>
       </c>
       <c r="O259" t="n">
         <v>1861326.612</v>
@@ -21349,27 +21349,27 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0.00431</v>
+        <v>0.00451</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0066014453958838</v>
+        <v>0.0068081106802886</v>
       </c>
       <c r="H260" t="n">
         <v>0.0419525614538952</v>
       </c>
       <c r="I260" t="n">
-        <v>0.0193</v>
+        <v>0.01968</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
-        <v>0.00583</v>
+        <v>0.00605</v>
       </c>
       <c r="M260" t="n">
-        <v>0.008619999999999999</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01637</v>
+        <v>0.01722</v>
       </c>
       <c r="O260" t="n">
         <v>1861326.612</v>
@@ -21433,7 +21433,7 @@
         <v>0.013</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0253472255345588</v>
+        <v>0.0253529671415694</v>
       </c>
       <c r="H261" t="n">
         <v>0.171</v>
@@ -21514,7 +21514,7 @@
         <v>0.013</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0253472255345588</v>
+        <v>0.0253529671415694</v>
       </c>
       <c r="H262" t="n">
         <v>0.171</v>
@@ -21668,24 +21668,24 @@
         <v>0.023</v>
       </c>
       <c r="G264" t="n">
-        <v>0.0331396055838333</v>
+        <v>0.0331832936641034</v>
       </c>
       <c r="H264" t="n">
         <v>0.185</v>
       </c>
       <c r="I264" t="n">
-        <v>0.11735</v>
+        <v>0.11748</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
-        <v>0.01166</v>
+        <v>0.01177</v>
       </c>
       <c r="M264" t="n">
         <v>0.055</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06968000000000001</v>
+        <v>0.06929</v>
       </c>
       <c r="O264" t="n">
         <v>1861326.612</v>
@@ -21745,24 +21745,24 @@
         <v>0.023</v>
       </c>
       <c r="G265" t="n">
-        <v>0.0331396055838333</v>
+        <v>0.0331832936641034</v>
       </c>
       <c r="H265" t="n">
         <v>0.185</v>
       </c>
       <c r="I265" t="n">
-        <v>0.11735</v>
+        <v>0.11748</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>0.01166</v>
+        <v>0.01177</v>
       </c>
       <c r="M265" t="n">
         <v>0.055</v>
       </c>
       <c r="N265" t="n">
-        <v>0.06968000000000001</v>
+        <v>0.06929</v>
       </c>
       <c r="O265" t="n">
         <v>1861326.612</v>
@@ -21822,7 +21822,7 @@
         <v>0.09</v>
       </c>
       <c r="G266" t="n">
-        <v>0.116604271612482</v>
+        <v>0.116567724255856</v>
       </c>
       <c r="H266" t="n">
         <v>0.9399999999999999</v>
@@ -21899,7 +21899,7 @@
         <v>0.09</v>
       </c>
       <c r="G267" t="n">
-        <v>0.116604271612482</v>
+        <v>0.116567724255856</v>
       </c>
       <c r="H267" t="n">
         <v>0.9399999999999999</v>
@@ -21976,7 +21976,7 @@
         <v>0.011</v>
       </c>
       <c r="G268" t="n">
-        <v>0.0153682792060664</v>
+        <v>0.0153671501667041</v>
       </c>
       <c r="H268" t="n">
         <v>0.225</v>
@@ -22053,7 +22053,7 @@
         <v>0.011</v>
       </c>
       <c r="G269" t="n">
-        <v>0.0153682792060664</v>
+        <v>0.0153671501667041</v>
       </c>
       <c r="H269" t="n">
         <v>0.225</v>
@@ -22292,13 +22292,13 @@
         <v>2</v>
       </c>
       <c r="G272" t="n">
-        <v>2.70790285992505</v>
+        <v>2.68428623011059</v>
       </c>
       <c r="H272" t="n">
-        <v>9.30792040148364</v>
+        <v>9.59072903701294</v>
       </c>
       <c r="I272" t="n">
-        <v>6.085</v>
+        <v>6.24039</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -22306,10 +22306,10 @@
         <v>3.1</v>
       </c>
       <c r="M272" t="n">
-        <v>4.347</v>
+        <v>4.2</v>
       </c>
       <c r="N272" t="n">
-        <v>6</v>
+        <v>6.026</v>
       </c>
       <c r="O272" t="n">
         <v>1861326.612</v>
@@ -22373,7 +22373,7 @@
         <v>0.008</v>
       </c>
       <c r="G273" t="n">
-        <v>0.0076862879046477</v>
+        <v>0.0076856542010166</v>
       </c>
       <c r="H273" t="n">
         <v>0.014</v>
@@ -22454,7 +22454,7 @@
         <v>0.008</v>
       </c>
       <c r="G274" t="n">
-        <v>0.0076862879046477</v>
+        <v>0.0076856542010166</v>
       </c>
       <c r="H274" t="n">
         <v>0.014</v>
@@ -22535,7 +22535,7 @@
         <v>27.5</v>
       </c>
       <c r="G275" t="n">
-        <v>119.413866925855</v>
+        <v>119.413489342089</v>
       </c>
       <c r="H275" t="n">
         <v>1700</v>
@@ -22620,7 +22620,7 @@
         <v>27.5</v>
       </c>
       <c r="G276" t="n">
-        <v>119.413866925855</v>
+        <v>119.413489342089</v>
       </c>
       <c r="H276" t="n">
         <v>1700</v>
@@ -22705,7 +22705,7 @@
         <v>27.5</v>
       </c>
       <c r="G277" t="n">
-        <v>119.413866925855</v>
+        <v>119.413489342089</v>
       </c>
       <c r="H277" t="n">
         <v>1700</v>
@@ -22790,7 +22790,7 @@
         <v>27.5</v>
       </c>
       <c r="G278" t="n">
-        <v>119.413866925855</v>
+        <v>119.413489342089</v>
       </c>
       <c r="H278" t="n">
         <v>1700</v>
@@ -22949,27 +22949,27 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0.00453</v>
+        <v>0.00471</v>
       </c>
       <c r="G280" t="n">
-        <v>0.0062239259624911</v>
+        <v>0.0064201401238299</v>
       </c>
       <c r="H280" t="n">
-        <v>0.037113981747154</v>
+        <v>0.038275075676475</v>
       </c>
       <c r="I280" t="n">
-        <v>0.01753</v>
+        <v>0.01848</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
-        <v>0.00583</v>
+        <v>0.00605</v>
       </c>
       <c r="M280" t="n">
-        <v>0.008580000000000001</v>
+        <v>0.00861</v>
       </c>
       <c r="N280" t="n">
-        <v>0.01233</v>
+        <v>0.01237</v>
       </c>
       <c r="O280" t="n">
         <v>1861326.612</v>
@@ -23030,27 +23030,27 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0.00453</v>
+        <v>0.00471</v>
       </c>
       <c r="G281" t="n">
-        <v>0.0062239259624911</v>
+        <v>0.0064201401238299</v>
       </c>
       <c r="H281" t="n">
-        <v>0.037113981747154</v>
+        <v>0.038275075676475</v>
       </c>
       <c r="I281" t="n">
-        <v>0.01753</v>
+        <v>0.01848</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
-        <v>0.00583</v>
+        <v>0.00605</v>
       </c>
       <c r="M281" t="n">
-        <v>0.008580000000000001</v>
+        <v>0.00861</v>
       </c>
       <c r="N281" t="n">
-        <v>0.01233</v>
+        <v>0.01237</v>
       </c>
       <c r="O281" t="n">
         <v>1861326.612</v>
@@ -23114,7 +23114,7 @@
         <v>0.0155</v>
       </c>
       <c r="G282" t="n">
-        <v>0.0286473500000767</v>
+        <v>0.0286527190020676</v>
       </c>
       <c r="H282" t="n">
         <v>0.171</v>
@@ -23195,7 +23195,7 @@
         <v>0.0155</v>
       </c>
       <c r="G283" t="n">
-        <v>0.0286473500000767</v>
+        <v>0.0286527190020676</v>
       </c>
       <c r="H283" t="n">
         <v>0.171</v>
@@ -23349,7 +23349,7 @@
         <v>0.025</v>
       </c>
       <c r="G285" t="n">
-        <v>0.0364470445665881</v>
+        <v>0.0364759383852235</v>
       </c>
       <c r="H285" t="n">
         <v>0.185</v>
@@ -23360,7 +23360,7 @@
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
-        <v>0.01116</v>
+        <v>0.01127</v>
       </c>
       <c r="M285" t="n">
         <v>0.055</v>
@@ -23426,7 +23426,7 @@
         <v>0.025</v>
       </c>
       <c r="G286" t="n">
-        <v>0.0364470445665881</v>
+        <v>0.0364759383852235</v>
       </c>
       <c r="H286" t="n">
         <v>0.185</v>
@@ -23437,7 +23437,7 @@
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
-        <v>0.01116</v>
+        <v>0.01127</v>
       </c>
       <c r="M286" t="n">
         <v>0.055</v>
@@ -23503,7 +23503,7 @@
         <v>0.09</v>
       </c>
       <c r="G287" t="n">
-        <v>0.120683655605801</v>
+        <v>0.120646478122336</v>
       </c>
       <c r="H287" t="n">
         <v>0.9399999999999999</v>
@@ -23580,7 +23580,7 @@
         <v>0.09</v>
       </c>
       <c r="G288" t="n">
-        <v>0.120683655605801</v>
+        <v>0.120646478122336</v>
       </c>
       <c r="H288" t="n">
         <v>0.9399999999999999</v>
@@ -23657,7 +23657,7 @@
         <v>0.0115</v>
       </c>
       <c r="G289" t="n">
-        <v>0.0153573874682399</v>
+        <v>0.0153562389626818</v>
       </c>
       <c r="H289" t="n">
         <v>0.225</v>
@@ -23734,7 +23734,7 @@
         <v>0.0115</v>
       </c>
       <c r="G290" t="n">
-        <v>0.0153573874682399</v>
+        <v>0.0153562389626818</v>
       </c>
       <c r="H290" t="n">
         <v>0.225</v>
@@ -23973,13 +23973,13 @@
         <v>2.1</v>
       </c>
       <c r="G293" t="n">
-        <v>2.86760973299193</v>
+        <v>2.8485541382082</v>
       </c>
       <c r="H293" t="n">
-        <v>9.30792040148364</v>
+        <v>9.59072903701294</v>
       </c>
       <c r="I293" t="n">
-        <v>6.97319</v>
+        <v>6.29176</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
@@ -23987,10 +23987,10 @@
         <v>3</v>
       </c>
       <c r="M293" t="n">
-        <v>4.96798</v>
+        <v>4.266</v>
       </c>
       <c r="N293" t="n">
-        <v>6.034</v>
+        <v>6.21994</v>
       </c>
       <c r="O293" t="n">
         <v>1861326.612</v>
@@ -24054,7 +24054,7 @@
         <v>0.007</v>
       </c>
       <c r="G294" t="n">
-        <v>0.0069832620746384</v>
+        <v>0.0069828694646497</v>
       </c>
       <c r="H294" t="n">
         <v>0.013</v>
@@ -24135,7 +24135,7 @@
         <v>0.007</v>
       </c>
       <c r="G295" t="n">
-        <v>0.0069832620746384</v>
+        <v>0.0069828694646497</v>
       </c>
       <c r="H295" t="n">
         <v>0.013</v>
@@ -24216,7 +24216,7 @@
         <v>29.5</v>
       </c>
       <c r="G296" t="n">
-        <v>107.1552462362</v>
+        <v>107.154868652434</v>
       </c>
       <c r="H296" t="n">
         <v>1700</v>
@@ -24301,7 +24301,7 @@
         <v>29.5</v>
       </c>
       <c r="G297" t="n">
-        <v>107.1552462362</v>
+        <v>107.154868652434</v>
       </c>
       <c r="H297" t="n">
         <v>1700</v>
@@ -24386,7 +24386,7 @@
         <v>29.5</v>
       </c>
       <c r="G298" t="n">
-        <v>107.1552462362</v>
+        <v>107.154868652434</v>
       </c>
       <c r="H298" t="n">
         <v>1700</v>
@@ -24471,7 +24471,7 @@
         <v>29.5</v>
       </c>
       <c r="G299" t="n">
-        <v>107.1552462362</v>
+        <v>107.154868652434</v>
       </c>
       <c r="H299" t="n">
         <v>1700</v>
@@ -24630,27 +24630,27 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>0.00453</v>
+        <v>0.00471</v>
       </c>
       <c r="G301" t="n">
-        <v>0.0061349007909768</v>
+        <v>0.0062789414249206</v>
       </c>
       <c r="H301" t="n">
-        <v>0.037113981747154</v>
+        <v>0.038275075676475</v>
       </c>
       <c r="I301" t="n">
-        <v>0.01729</v>
+        <v>0.01786</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
-        <v>0.00668</v>
+        <v>0.00687</v>
       </c>
       <c r="M301" t="n">
-        <v>0.008789999999999999</v>
+        <v>0.00907</v>
       </c>
       <c r="N301" t="n">
-        <v>0.01233</v>
+        <v>0.01237</v>
       </c>
       <c r="O301" t="n">
         <v>1861326.612</v>
@@ -24711,27 +24711,27 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>0.00453</v>
+        <v>0.00471</v>
       </c>
       <c r="G302" t="n">
-        <v>0.0061349007909768</v>
+        <v>0.0062789414249206</v>
       </c>
       <c r="H302" t="n">
-        <v>0.037113981747154</v>
+        <v>0.038275075676475</v>
       </c>
       <c r="I302" t="n">
-        <v>0.01729</v>
+        <v>0.01786</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
-        <v>0.00668</v>
+        <v>0.00687</v>
       </c>
       <c r="M302" t="n">
-        <v>0.008789999999999999</v>
+        <v>0.00907</v>
       </c>
       <c r="N302" t="n">
-        <v>0.01233</v>
+        <v>0.01237</v>
       </c>
       <c r="O302" t="n">
         <v>1861326.612</v>
@@ -24795,7 +24795,7 @@
         <v>0.013</v>
       </c>
       <c r="G303" t="n">
-        <v>0.0272804649141237</v>
+        <v>0.0272871765227555</v>
       </c>
       <c r="H303" t="n">
         <v>0.171</v>
@@ -24876,7 +24876,7 @@
         <v>0.013</v>
       </c>
       <c r="G304" t="n">
-        <v>0.0272804649141237</v>
+        <v>0.0272871765227555</v>
       </c>
       <c r="H304" t="n">
         <v>0.171</v>
@@ -25030,7 +25030,7 @@
         <v>0.0195</v>
       </c>
       <c r="G306" t="n">
-        <v>0.0346629827376304</v>
+        <v>0.0346969068039355</v>
       </c>
       <c r="H306" t="n">
         <v>0.185</v>
@@ -25107,7 +25107,7 @@
         <v>0.0195</v>
       </c>
       <c r="G307" t="n">
-        <v>0.0346629827376304</v>
+        <v>0.0346969068039355</v>
       </c>
       <c r="H307" t="n">
         <v>0.185</v>
@@ -25184,7 +25184,7 @@
         <v>0.08</v>
       </c>
       <c r="G308" t="n">
-        <v>0.116227461791014</v>
+        <v>0.116213833011987</v>
       </c>
       <c r="H308" t="n">
         <v>0.9399999999999999</v>
@@ -25261,7 +25261,7 @@
         <v>0.08</v>
       </c>
       <c r="G309" t="n">
-        <v>0.116227461791014</v>
+        <v>0.116213833011987</v>
       </c>
       <c r="H309" t="n">
         <v>0.9399999999999999</v>
@@ -25338,7 +25338,7 @@
         <v>0.01</v>
       </c>
       <c r="G310" t="n">
-        <v>0.0145078266841011</v>
+        <v>0.0145072394646723</v>
       </c>
       <c r="H310" t="n">
         <v>0.225</v>
@@ -25415,7 +25415,7 @@
         <v>0.01</v>
       </c>
       <c r="G311" t="n">
-        <v>0.0145078266841011</v>
+        <v>0.0145072394646723</v>
       </c>
       <c r="H311" t="n">
         <v>0.225</v>
@@ -25654,13 +25654,13 @@
         <v>2</v>
       </c>
       <c r="G314" t="n">
-        <v>2.88057886904368</v>
+        <v>2.85404346145445</v>
       </c>
       <c r="H314" t="n">
-        <v>7.14176094433333</v>
+        <v>7</v>
       </c>
       <c r="I314" t="n">
-        <v>7.00702</v>
+        <v>6.31704</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -25668,10 +25668,10 @@
         <v>2.85</v>
       </c>
       <c r="M314" t="n">
-        <v>5.10611</v>
+        <v>4.67</v>
       </c>
       <c r="N314" t="n">
-        <v>6.066</v>
+        <v>6.24186</v>
       </c>
       <c r="O314" t="n">
         <v>1861326.612</v>
@@ -25735,7 +25735,7 @@
         <v>0.008</v>
       </c>
       <c r="G315" t="n">
-        <v>0.0075970035145444</v>
+        <v>0.0075966040166611</v>
       </c>
       <c r="H315" t="n">
         <v>0.016</v>
@@ -25816,7 +25816,7 @@
         <v>0.008</v>
       </c>
       <c r="G316" t="n">
-        <v>0.0075970035145444</v>
+        <v>0.0075966040166611</v>
       </c>
       <c r="H316" t="n">
         <v>0.016</v>
@@ -25897,7 +25897,7 @@
         <v>30</v>
       </c>
       <c r="G317" t="n">
-        <v>80.6911742112501</v>
+        <v>80.6902901459154</v>
       </c>
       <c r="H317" t="n">
         <v>1600</v>
@@ -25982,7 +25982,7 @@
         <v>30</v>
       </c>
       <c r="G318" t="n">
-        <v>80.6911742112501</v>
+        <v>80.6902901459154</v>
       </c>
       <c r="H318" t="n">
         <v>1600</v>
@@ -26067,7 +26067,7 @@
         <v>30</v>
       </c>
       <c r="G319" t="n">
-        <v>80.6911742112501</v>
+        <v>80.6902901459154</v>
       </c>
       <c r="H319" t="n">
         <v>1600</v>
@@ -26152,7 +26152,7 @@
         <v>30</v>
       </c>
       <c r="G320" t="n">
-        <v>80.6911742112501</v>
+        <v>80.6902901459154</v>
       </c>
       <c r="H320" t="n">
         <v>1600</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0.00433</v>
+        <v>0.00451</v>
       </c>
       <c r="G322" t="n">
-        <v>0.0058480264082486</v>
+        <v>0.0059445536346089</v>
       </c>
       <c r="H322" t="n">
-        <v>0.037113981747154</v>
+        <v>0.038275075676475</v>
       </c>
       <c r="I322" t="n">
         <v>0.0152</v>
@@ -26325,13 +26325,13 @@
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
-        <v>0.00668</v>
+        <v>0.00687</v>
       </c>
       <c r="M322" t="n">
-        <v>0.008710000000000001</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="N322" t="n">
-        <v>0.01101</v>
+        <v>0.01129</v>
       </c>
       <c r="O322" t="n">
         <v>1861326.612</v>
@@ -26392,13 +26392,13 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0.00433</v>
+        <v>0.00451</v>
       </c>
       <c r="G323" t="n">
-        <v>0.0058480264082486</v>
+        <v>0.0059445536346089</v>
       </c>
       <c r="H323" t="n">
-        <v>0.037113981747154</v>
+        <v>0.038275075676475</v>
       </c>
       <c r="I323" t="n">
         <v>0.0152</v>
@@ -26406,13 +26406,13 @@
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
-        <v>0.00668</v>
+        <v>0.00687</v>
       </c>
       <c r="M323" t="n">
-        <v>0.008710000000000001</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="N323" t="n">
-        <v>0.01101</v>
+        <v>0.01129</v>
       </c>
       <c r="O323" t="n">
         <v>1861326.612</v>
@@ -26476,7 +26476,7 @@
         <v>0.011</v>
       </c>
       <c r="G324" t="n">
-        <v>0.0241099467547223</v>
+        <v>0.024116776110874</v>
       </c>
       <c r="H324" t="n">
         <v>0.125</v>
@@ -26557,7 +26557,7 @@
         <v>0.011</v>
       </c>
       <c r="G325" t="n">
-        <v>0.0241099467547223</v>
+        <v>0.024116776110874</v>
       </c>
       <c r="H325" t="n">
         <v>0.125</v>
@@ -26711,7 +26711,7 @@
         <v>0.015</v>
       </c>
       <c r="G327" t="n">
-        <v>0.0310605789260099</v>
+        <v>0.031095098151373</v>
       </c>
       <c r="H327" t="n">
         <v>0.17</v>
@@ -26722,7 +26722,7 @@
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
-        <v>0.01073</v>
+        <v>0.01102</v>
       </c>
       <c r="M327" t="n">
         <v>0.05362</v>
@@ -26788,7 +26788,7 @@
         <v>0.015</v>
       </c>
       <c r="G328" t="n">
-        <v>0.0310605789260099</v>
+        <v>0.031095098151373</v>
       </c>
       <c r="H328" t="n">
         <v>0.17</v>
@@ -26799,7 +26799,7 @@
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
-        <v>0.01073</v>
+        <v>0.01102</v>
       </c>
       <c r="M328" t="n">
         <v>0.05362</v>
@@ -26865,7 +26865,7 @@
         <v>0.08</v>
       </c>
       <c r="G329" t="n">
-        <v>0.09756478568208431</v>
+        <v>0.09755091780167111</v>
       </c>
       <c r="H329" t="n">
         <v>0.26</v>
@@ -26942,7 +26942,7 @@
         <v>0.08</v>
       </c>
       <c r="G330" t="n">
-        <v>0.09756478568208431</v>
+        <v>0.09755091780167111</v>
       </c>
       <c r="H330" t="n">
         <v>0.26</v>
@@ -27019,7 +27019,7 @@
         <v>0.012</v>
       </c>
       <c r="G331" t="n">
-        <v>0.0117097183803134</v>
+        <v>0.0117091208587894</v>
       </c>
       <c r="H331" t="n">
         <v>0.026</v>
@@ -27096,7 +27096,7 @@
         <v>0.012</v>
       </c>
       <c r="G332" t="n">
-        <v>0.0117097183803134</v>
+        <v>0.0117091208587894</v>
       </c>
       <c r="H332" t="n">
         <v>0.026</v>
@@ -27147,6 +27147,1687 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F333" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.5274</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.58335</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O333" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P333" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F334" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G334" t="n">
+        <v>5.46674418604651</v>
+      </c>
+      <c r="H334" t="n">
+        <v>19</v>
+      </c>
+      <c r="I334" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>5.425</v>
+      </c>
+      <c r="M334" t="n">
+        <v>11</v>
+      </c>
+      <c r="N334" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="O334" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P334" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F335" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G335" t="n">
+        <v>2.93641646862147</v>
+      </c>
+      <c r="H335" t="n">
+        <v>7</v>
+      </c>
+      <c r="I335" t="n">
+        <v>6.40636</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M335" t="n">
+        <v>5.0998</v>
+      </c>
+      <c r="N335" t="n">
+        <v>6.27403</v>
+      </c>
+      <c r="O335" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P335" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F336" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.007439193240239</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.01565</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O336" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P336" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F337" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.007439193240239</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.01565</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O337" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P337" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>30</v>
+      </c>
+      <c r="G338" t="n">
+        <v>85.8832726020558</v>
+      </c>
+      <c r="H338" t="n">
+        <v>1444</v>
+      </c>
+      <c r="I338" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K338" t="n">
+        <v>7.01754385964912</v>
+      </c>
+      <c r="L338" t="n">
+        <v>32</v>
+      </c>
+      <c r="M338" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="N338" t="n">
+        <v>229.52</v>
+      </c>
+      <c r="O338" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P338" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F339" t="n">
+        <v>30</v>
+      </c>
+      <c r="G339" t="n">
+        <v>85.8832726020558</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1444</v>
+      </c>
+      <c r="I339" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K339" t="n">
+        <v>7.01754385964912</v>
+      </c>
+      <c r="L339" t="n">
+        <v>32</v>
+      </c>
+      <c r="M339" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="N339" t="n">
+        <v>229.52</v>
+      </c>
+      <c r="O339" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P339" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F340" t="n">
+        <v>30</v>
+      </c>
+      <c r="G340" t="n">
+        <v>85.8832726020558</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1444</v>
+      </c>
+      <c r="I340" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K340" t="n">
+        <v>7.01754385964912</v>
+      </c>
+      <c r="L340" t="n">
+        <v>32</v>
+      </c>
+      <c r="M340" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="N340" t="n">
+        <v>229.52</v>
+      </c>
+      <c r="O340" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P340" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>30</v>
+      </c>
+      <c r="G341" t="n">
+        <v>85.8832726020558</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1444</v>
+      </c>
+      <c r="I341" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1.75438596491228</v>
+      </c>
+      <c r="K341" t="n">
+        <v>7.01754385964912</v>
+      </c>
+      <c r="L341" t="n">
+        <v>32</v>
+      </c>
+      <c r="M341" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="N341" t="n">
+        <v>229.52</v>
+      </c>
+      <c r="O341" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P341" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F342" t="n">
+        <v>117.65</v>
+      </c>
+      <c r="G342" t="n">
+        <v>114.18</v>
+      </c>
+      <c r="H342" t="n">
+        <v>122</v>
+      </c>
+      <c r="I342" t="n">
+        <v>122</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>112.625</v>
+      </c>
+      <c r="M342" t="n">
+        <v>120.95</v>
+      </c>
+      <c r="N342" t="n">
+        <v>122</v>
+      </c>
+      <c r="O342" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P342" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0056634830916996</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.038275075676475</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0.01134</v>
+      </c>
+      <c r="O343" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P343" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F344" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.0056634830916996</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.038275075676475</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>0.00582</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0.00898</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0.01134</v>
+      </c>
+      <c r="O344" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P344" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F345" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0235904603214003</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.05105</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0.06976</v>
+      </c>
+      <c r="O345" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P345" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F346" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0235904603214003</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0.05105</v>
+      </c>
+      <c r="N346" t="n">
+        <v>0.06976</v>
+      </c>
+      <c r="O346" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P346" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F347" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="G347" t="n">
+        <v>5.9354</v>
+      </c>
+      <c r="H347" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="I347" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="M347" t="n">
+        <v>6.88755</v>
+      </c>
+      <c r="N347" t="n">
+        <v>7.177</v>
+      </c>
+      <c r="O347" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P347" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0304635192040046</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.08525000000000001</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>0.01102</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0.06162</v>
+      </c>
+      <c r="N348" t="n">
+        <v>0.07346</v>
+      </c>
+      <c r="O348" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P348" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F349" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0304635192040046</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.08525000000000001</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>0.01102</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0.06162</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0.07346</v>
+      </c>
+      <c r="O349" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P349" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.107205988664076</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="O350" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P350" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F351" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.107205988664076</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0.1694</v>
+      </c>
+      <c r="O351" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P351" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0145438596491228</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O352" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P352" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F353" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0145438596491228</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O353" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="P353" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
+++ b/state_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
@@ -7629,13 +7629,13 @@
         <v>2.705</v>
       </c>
       <c r="G89" t="n">
-        <v>3.02605859636727</v>
+        <v>2.96974212531843</v>
       </c>
       <c r="H89" t="n">
         <v>7.5</v>
       </c>
       <c r="I89" t="n">
-        <v>6.25</v>
+        <v>5.935</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -7643,10 +7643,10 @@
         <v>3.8</v>
       </c>
       <c r="M89" t="n">
-        <v>4.74886</v>
+        <v>4.68958</v>
       </c>
       <c r="N89" t="n">
-        <v>5.221</v>
+        <v>5.053</v>
       </c>
       <c r="O89" t="n">
         <v>1861326.612</v>
@@ -9075,13 +9075,13 @@
         <v>2.6</v>
       </c>
       <c r="G107" t="n">
-        <v>2.80776362180025</v>
+        <v>2.74644718507614</v>
       </c>
       <c r="H107" t="n">
         <v>7.5</v>
       </c>
       <c r="I107" t="n">
-        <v>5.19079</v>
+        <v>5.04</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -9089,10 +9089,10 @@
         <v>3.8</v>
       </c>
       <c r="M107" t="n">
-        <v>4.71124</v>
+        <v>4.49376</v>
       </c>
       <c r="N107" t="n">
-        <v>5.06871</v>
+        <v>5</v>
       </c>
       <c r="O107" t="n">
         <v>1861326.612</v>
@@ -10602,13 +10602,13 @@
         <v>2.5</v>
       </c>
       <c r="G126" t="n">
-        <v>2.6777080662447</v>
+        <v>2.61639162952059</v>
       </c>
       <c r="H126" t="n">
-        <v>7.29011245035259</v>
+        <v>5.2</v>
       </c>
       <c r="I126" t="n">
-        <v>5.13316</v>
+        <v>5</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -10616,10 +10616,10 @@
         <v>3.8</v>
       </c>
       <c r="M126" t="n">
-        <v>4.5</v>
+        <v>4.296</v>
       </c>
       <c r="N126" t="n">
-        <v>5.009</v>
+        <v>5</v>
       </c>
       <c r="O126" t="n">
         <v>1861326.612</v>
@@ -12206,13 +12206,13 @@
         <v>2.5</v>
       </c>
       <c r="G146" t="n">
-        <v>2.68362246504025</v>
+        <v>2.62342087262021</v>
       </c>
       <c r="H146" t="n">
-        <v>7.29011245035259</v>
+        <v>7.2</v>
       </c>
       <c r="I146" t="n">
-        <v>6.40424</v>
+        <v>5</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -12220,10 +12220,10 @@
         <v>3.5</v>
       </c>
       <c r="M146" t="n">
-        <v>4.5273</v>
+        <v>4.5</v>
       </c>
       <c r="N146" t="n">
-        <v>5.0154</v>
+        <v>5</v>
       </c>
       <c r="O146" t="n">
         <v>1861326.612</v>
@@ -13887,13 +13887,13 @@
         <v>2.8</v>
       </c>
       <c r="G167" t="n">
-        <v>3.00048598948592</v>
+        <v>2.94028439706588</v>
       </c>
       <c r="H167" t="n">
-        <v>7.29011245035259</v>
+        <v>7.2</v>
       </c>
       <c r="I167" t="n">
-        <v>6.40424</v>
+        <v>5</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -13901,10 +13901,10 @@
         <v>3.9</v>
       </c>
       <c r="M167" t="n">
-        <v>4.6922</v>
+        <v>4.5273</v>
       </c>
       <c r="N167" t="n">
-        <v>5.0154</v>
+        <v>5</v>
       </c>
       <c r="O167" t="n">
         <v>1861326.612</v>
@@ -15568,13 +15568,13 @@
         <v>3</v>
       </c>
       <c r="G188" t="n">
-        <v>2.9902632864273</v>
+        <v>2.98729413162792</v>
       </c>
       <c r="H188" t="n">
         <v>7.2</v>
       </c>
       <c r="I188" t="n">
-        <v>5.13086</v>
+        <v>4.99949</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15585,7 +15585,7 @@
         <v>4.5</v>
       </c>
       <c r="N188" t="n">
-        <v>4.852</v>
+        <v>4.85111</v>
       </c>
       <c r="O188" t="n">
         <v>1861326.612</v>
@@ -17249,10 +17249,10 @@
         <v>2.925</v>
       </c>
       <c r="G209" t="n">
-        <v>3.15982831550024</v>
+        <v>3.16307378998798</v>
       </c>
       <c r="H209" t="n">
-        <v>9.59072903701294</v>
+        <v>9.765984659350851</v>
       </c>
       <c r="I209" t="n">
         <v>6.6568</v>
@@ -18930,10 +18930,10 @@
         <v>2.787</v>
       </c>
       <c r="G230" t="n">
-        <v>3.0249194157927</v>
+        <v>3.02822612564813</v>
       </c>
       <c r="H230" t="n">
-        <v>9.59072903701294</v>
+        <v>9.765984659350851</v>
       </c>
       <c r="I230" t="n">
         <v>6.71285</v>
@@ -20611,24 +20611,24 @@
         <v>2.925</v>
       </c>
       <c r="G251" t="n">
-        <v>3.01697865180885</v>
+        <v>2.96712519354932</v>
       </c>
       <c r="H251" t="n">
-        <v>9.59072903701294</v>
+        <v>9.765984659350851</v>
       </c>
       <c r="I251" t="n">
-        <v>6.09</v>
+        <v>6</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
-        <v>4.25</v>
+        <v>3.56</v>
       </c>
       <c r="M251" t="n">
-        <v>4.316</v>
+        <v>4.233</v>
       </c>
       <c r="N251" t="n">
-        <v>6</v>
+        <v>5.208</v>
       </c>
       <c r="O251" t="n">
         <v>1861326.612</v>
@@ -22292,13 +22292,13 @@
         <v>2</v>
       </c>
       <c r="G272" t="n">
-        <v>2.68428623011059</v>
+        <v>2.64084260213391</v>
       </c>
       <c r="H272" t="n">
-        <v>9.59072903701294</v>
+        <v>9.765984659350851</v>
       </c>
       <c r="I272" t="n">
-        <v>6.24039</v>
+        <v>6.085</v>
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
@@ -22309,7 +22309,7 @@
         <v>4.2</v>
       </c>
       <c r="N272" t="n">
-        <v>6.026</v>
+        <v>6</v>
       </c>
       <c r="O272" t="n">
         <v>1861326.612</v>
@@ -23973,13 +23973,13 @@
         <v>2.1</v>
       </c>
       <c r="G293" t="n">
-        <v>2.8485541382082</v>
+        <v>2.80059210574711</v>
       </c>
       <c r="H293" t="n">
-        <v>9.59072903701294</v>
+        <v>9.765984659350851</v>
       </c>
       <c r="I293" t="n">
-        <v>6.29176</v>
+        <v>6.133</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
@@ -23990,7 +23990,7 @@
         <v>4.266</v>
       </c>
       <c r="N293" t="n">
-        <v>6.21994</v>
+        <v>6.034</v>
       </c>
       <c r="O293" t="n">
         <v>1861326.612</v>
@@ -25654,13 +25654,13 @@
         <v>2</v>
       </c>
       <c r="G314" t="n">
-        <v>2.85404346145445</v>
+        <v>2.79843343415622</v>
       </c>
       <c r="H314" t="n">
         <v>7</v>
       </c>
       <c r="I314" t="n">
-        <v>6.31704</v>
+        <v>6.20788</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -25668,10 +25668,10 @@
         <v>2.85</v>
       </c>
       <c r="M314" t="n">
-        <v>4.67</v>
+        <v>4.46534</v>
       </c>
       <c r="N314" t="n">
-        <v>6.24186</v>
+        <v>6.066</v>
       </c>
       <c r="O314" t="n">
         <v>1861326.612</v>
@@ -27335,13 +27335,13 @@
         <v>2.6</v>
       </c>
       <c r="G335" t="n">
-        <v>2.93641646862147</v>
+        <v>2.84891868167841</v>
       </c>
       <c r="H335" t="n">
         <v>7</v>
       </c>
       <c r="I335" t="n">
-        <v>6.40636</v>
+        <v>6.49274</v>
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
@@ -27349,10 +27349,10 @@
         <v>2.7</v>
       </c>
       <c r="M335" t="n">
-        <v>5.0998</v>
+        <v>4.48424</v>
       </c>
       <c r="N335" t="n">
-        <v>6.27403</v>
+        <v>6.041</v>
       </c>
       <c r="O335" t="n">
         <v>1861326.612</v>
